--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Apln</t>
+  </si>
+  <si>
+    <t>Aplnr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Apln</t>
-  </si>
-  <si>
-    <t>Aplnr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.878789333333332</v>
+        <v>99.80388900000001</v>
       </c>
       <c r="H2">
-        <v>26.636368</v>
+        <v>299.411667</v>
       </c>
       <c r="I2">
-        <v>0.4861213416639564</v>
+        <v>0.9084123588927105</v>
       </c>
       <c r="J2">
-        <v>0.4861213416639563</v>
+        <v>0.9084123588927107</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>91.82302933333334</v>
+        <v>85.94417566666668</v>
       </c>
       <c r="N2">
-        <v>275.469088</v>
+        <v>257.832527</v>
       </c>
       <c r="O2">
-        <v>0.9709126239857535</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="P2">
-        <v>0.9709126239857532</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="Q2">
-        <v>815.2773333991537</v>
+        <v>8577.562968432503</v>
       </c>
       <c r="R2">
-        <v>7337.496000592383</v>
+        <v>77198.06671589252</v>
       </c>
       <c r="S2">
-        <v>0.471981347410427</v>
+        <v>0.8971517000465363</v>
       </c>
       <c r="T2">
-        <v>0.4719813474104267</v>
+        <v>0.8971517000465364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.878789333333332</v>
+        <v>99.80388900000001</v>
       </c>
       <c r="H3">
-        <v>26.636368</v>
+        <v>299.411667</v>
       </c>
       <c r="I3">
-        <v>0.4861213416639564</v>
+        <v>0.9084123588927105</v>
       </c>
       <c r="J3">
-        <v>0.4861213416639563</v>
+        <v>0.9084123588927107</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.686845</v>
       </c>
       <c r="O3">
-        <v>0.002420839616027969</v>
+        <v>0.002630897245452939</v>
       </c>
       <c r="P3">
-        <v>0.002420839616027969</v>
+        <v>0.00263089724545294</v>
       </c>
       <c r="Q3">
-        <v>2.032784019884444</v>
+        <v>22.849934046735</v>
       </c>
       <c r="R3">
-        <v>18.29505617896</v>
+        <v>205.649406420615</v>
       </c>
       <c r="S3">
-        <v>0.001176821802096774</v>
+        <v>0.002389939572746239</v>
       </c>
       <c r="T3">
-        <v>0.001176821802096773</v>
+        <v>0.00238993957274624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.878789333333332</v>
+        <v>99.80388900000001</v>
       </c>
       <c r="H4">
-        <v>26.636368</v>
+        <v>299.411667</v>
       </c>
       <c r="I4">
-        <v>0.4861213416639564</v>
+        <v>0.9084123588927105</v>
       </c>
       <c r="J4">
-        <v>0.4861213416639563</v>
+        <v>0.9084123588927107</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4168003333333333</v>
+        <v>0.2177653333333333</v>
       </c>
       <c r="N4">
-        <v>1.250401</v>
+        <v>0.653296</v>
       </c>
       <c r="O4">
-        <v>0.004407137384302118</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="P4">
-        <v>0.004407137384302117</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="Q4">
-        <v>3.700682353729777</v>
+        <v>21.733827156048</v>
       </c>
       <c r="R4">
-        <v>33.30614118356799</v>
+        <v>195.604444404432</v>
       </c>
       <c r="S4">
-        <v>0.002142403538154325</v>
+        <v>0.002273202779545352</v>
       </c>
       <c r="T4">
-        <v>0.002142403538154324</v>
+        <v>0.002273202779545352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.878789333333332</v>
+        <v>99.80388900000001</v>
       </c>
       <c r="H5">
-        <v>26.636368</v>
+        <v>299.411667</v>
       </c>
       <c r="I5">
-        <v>0.4861213416639564</v>
+        <v>0.9084123588927105</v>
       </c>
       <c r="J5">
-        <v>0.4861213416639563</v>
+        <v>0.9084123588927107</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.629965</v>
+        <v>0.177457</v>
       </c>
       <c r="N5">
-        <v>1.889895</v>
+        <v>0.5323709999999999</v>
       </c>
       <c r="O5">
-        <v>0.00666108464956894</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="P5">
-        <v>0.006661084649568939</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="Q5">
-        <v>5.593326522373332</v>
+        <v>17.710898730273</v>
       </c>
       <c r="R5">
-        <v>50.33993870136</v>
+        <v>159.398088572457</v>
       </c>
       <c r="S5">
-        <v>0.003238095406785638</v>
+        <v>0.001852433256822847</v>
       </c>
       <c r="T5">
-        <v>0.003238095406785637</v>
+        <v>0.001852433256822847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.878789333333332</v>
+        <v>99.80388900000001</v>
       </c>
       <c r="H6">
-        <v>26.636368</v>
+        <v>299.411667</v>
       </c>
       <c r="I6">
-        <v>0.4861213416639564</v>
+        <v>0.9084123588927105</v>
       </c>
       <c r="J6">
-        <v>0.4861213416639563</v>
+        <v>0.9084123588927107</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1945133333333334</v>
+        <v>0.3310313333333333</v>
       </c>
       <c r="N6">
-        <v>0.5835400000000002</v>
+        <v>0.9930939999999999</v>
       </c>
       <c r="O6">
-        <v>0.002056732959455134</v>
+        <v>0.003803956160525069</v>
       </c>
       <c r="P6">
-        <v>0.002056732959455133</v>
+        <v>0.00380395616052507</v>
       </c>
       <c r="Q6">
-        <v>1.727042909191111</v>
+        <v>33.038214447522</v>
       </c>
       <c r="R6">
-        <v>15.54338618272</v>
+        <v>297.343930027698</v>
       </c>
       <c r="S6">
-        <v>0.0009998217856948095</v>
+        <v>0.003455560788907036</v>
       </c>
       <c r="T6">
-        <v>0.0009998217856948088</v>
+        <v>0.003455560788907037</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.878789333333332</v>
+        <v>99.80388900000001</v>
       </c>
       <c r="H7">
-        <v>26.636368</v>
+        <v>299.411667</v>
       </c>
       <c r="I7">
-        <v>0.4861213416639564</v>
+        <v>0.9084123588927105</v>
       </c>
       <c r="J7">
-        <v>0.4861213416639563</v>
+        <v>0.9084123588927107</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.280680666666667</v>
+        <v>0.123532</v>
       </c>
       <c r="N7">
-        <v>3.842042</v>
+        <v>0.370596</v>
       </c>
       <c r="O7">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="P7">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="Q7">
-        <v>11.37089384260622</v>
+        <v>12.328974015948</v>
       </c>
       <c r="R7">
-        <v>102.338044583456</v>
+        <v>110.960766143532</v>
       </c>
       <c r="S7">
-        <v>0.006582851720797984</v>
+        <v>0.001289522448152735</v>
       </c>
       <c r="T7">
-        <v>0.006582851720797981</v>
+        <v>0.001289522448152735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>25.156105</v>
       </c>
       <c r="I8">
-        <v>0.4591061181328987</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="J8">
-        <v>0.4591061181328985</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.82302933333334</v>
+        <v>85.94417566666668</v>
       </c>
       <c r="N8">
-        <v>275.469088</v>
+        <v>257.832527</v>
       </c>
       <c r="O8">
-        <v>0.9709126239857535</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="P8">
-        <v>0.9709126239857532</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="Q8">
-        <v>769.969922442471</v>
+        <v>720.6735690697039</v>
       </c>
       <c r="R8">
-        <v>6929.729301982239</v>
+        <v>6486.062121627335</v>
       </c>
       <c r="S8">
-        <v>0.445751925844326</v>
+        <v>0.07537729773001521</v>
       </c>
       <c r="T8">
-        <v>0.4457519258443257</v>
+        <v>0.07537729773001521</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>25.156105</v>
       </c>
       <c r="I9">
-        <v>0.4591061181328987</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="J9">
-        <v>0.4591061181328985</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.686845</v>
       </c>
       <c r="O9">
-        <v>0.002420839616027969</v>
+        <v>0.002630897245452939</v>
       </c>
       <c r="P9">
-        <v>0.002420839616027969</v>
+        <v>0.00263089724545294</v>
       </c>
       <c r="Q9">
         <v>1.919816104302777</v>
@@ -1013,10 +1013,10 @@
         <v>17.278344938725</v>
       </c>
       <c r="S9">
-        <v>0.001111422278736938</v>
+        <v>0.0002007990250949691</v>
       </c>
       <c r="T9">
-        <v>0.001111422278736937</v>
+        <v>0.0002007990250949691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>25.156105</v>
       </c>
       <c r="I10">
-        <v>0.4591061181328987</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="J10">
-        <v>0.4591061181328985</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4168003333333333</v>
+        <v>0.2177653333333333</v>
       </c>
       <c r="N10">
-        <v>1.250401</v>
+        <v>0.653296</v>
       </c>
       <c r="O10">
-        <v>0.004407137384302118</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="P10">
-        <v>0.004407137384302117</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="Q10">
-        <v>3.49502431645611</v>
+        <v>1.826042530231111</v>
       </c>
       <c r="R10">
-        <v>31.45521884810499</v>
+        <v>16.43438277208</v>
       </c>
       <c r="S10">
-        <v>0.002023343736585323</v>
+        <v>0.0001909909803499231</v>
       </c>
       <c r="T10">
-        <v>0.002023343736585321</v>
+        <v>0.0001909909803499231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>25.156105</v>
       </c>
       <c r="I11">
-        <v>0.4591061181328987</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="J11">
-        <v>0.4591061181328985</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.629965</v>
+        <v>0.177457</v>
       </c>
       <c r="N11">
-        <v>1.889895</v>
+        <v>0.5323709999999999</v>
       </c>
       <c r="O11">
-        <v>0.00666108464956894</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="P11">
-        <v>0.006661084649568939</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="Q11">
-        <v>5.282488562108332</v>
+        <v>1.488042308328333</v>
       </c>
       <c r="R11">
-        <v>47.542397058975</v>
+        <v>13.392380774955</v>
       </c>
       <c r="S11">
-        <v>0.003058144716018236</v>
+        <v>0.0001556385760816979</v>
       </c>
       <c r="T11">
-        <v>0.003058144716018234</v>
+        <v>0.0001556385760816979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>25.156105</v>
       </c>
       <c r="I12">
-        <v>0.4591061181328987</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="J12">
-        <v>0.4591061181328985</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1945133333333334</v>
+        <v>0.3310313333333333</v>
       </c>
       <c r="N12">
-        <v>0.5835400000000002</v>
+        <v>0.9930939999999999</v>
       </c>
       <c r="O12">
-        <v>0.002056732959455134</v>
+        <v>0.003803956160525069</v>
       </c>
       <c r="P12">
-        <v>0.002056732959455133</v>
+        <v>0.00380395616052507</v>
       </c>
       <c r="Q12">
-        <v>1.631065945744445</v>
+        <v>2.775819659874444</v>
       </c>
       <c r="R12">
-        <v>14.6795935117</v>
+        <v>24.98237693886999</v>
       </c>
       <c r="S12">
-        <v>0.0009442586850514352</v>
+        <v>0.0002903308709063372</v>
       </c>
       <c r="T12">
-        <v>0.0009442586850514344</v>
+        <v>0.0002903308709063373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,40 +1231,40 @@
         <v>25.156105</v>
       </c>
       <c r="I13">
-        <v>0.4591061181328987</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="J13">
-        <v>0.4591061181328985</v>
+        <v>0.0763234008633428</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.280680666666667</v>
+        <v>0.123532</v>
       </c>
       <c r="N13">
-        <v>3.842042</v>
+        <v>0.370596</v>
       </c>
       <c r="O13">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="P13">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="Q13">
-        <v>10.73897910737889</v>
+        <v>1.035861320953333</v>
       </c>
       <c r="R13">
-        <v>96.65081196640998</v>
+        <v>9.322751888579999</v>
       </c>
       <c r="S13">
-        <v>0.006217022872180801</v>
+        <v>0.0001083436808946635</v>
       </c>
       <c r="T13">
-        <v>0.006217022872180797</v>
+        <v>0.0001083436808946635</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02478833333333333</v>
+        <v>1.441932666666667</v>
       </c>
       <c r="H14">
-        <v>0.074365</v>
+        <v>4.325798000000001</v>
       </c>
       <c r="I14">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="J14">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.82302933333334</v>
+        <v>85.94417566666668</v>
       </c>
       <c r="N14">
-        <v>275.469088</v>
+        <v>257.832527</v>
       </c>
       <c r="O14">
-        <v>0.9709126239857535</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="P14">
-        <v>0.9709126239857532</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="Q14">
-        <v>2.276139858791111</v>
+        <v>123.9257144035052</v>
       </c>
       <c r="R14">
-        <v>20.48525872912</v>
+        <v>1115.331429631546</v>
       </c>
       <c r="S14">
-        <v>0.001317705660928562</v>
+        <v>0.0129617428360195</v>
       </c>
       <c r="T14">
-        <v>0.001317705660928561</v>
+        <v>0.01296174283601951</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02478833333333333</v>
+        <v>1.441932666666667</v>
       </c>
       <c r="H15">
-        <v>0.074365</v>
+        <v>4.325798000000001</v>
       </c>
       <c r="I15">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="J15">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.686845</v>
       </c>
       <c r="O15">
-        <v>0.002420839616027969</v>
+        <v>0.002630897245452939</v>
       </c>
       <c r="P15">
-        <v>0.002420839616027969</v>
+        <v>0.00263089724545294</v>
       </c>
       <c r="Q15">
-        <v>0.005675247602777778</v>
+        <v>0.3301280808122223</v>
       </c>
       <c r="R15">
-        <v>0.051077228425</v>
+        <v>2.971152727310001</v>
       </c>
       <c r="S15">
-        <v>3.285521258488641E-06</v>
+        <v>3.452903464816064E-05</v>
       </c>
       <c r="T15">
-        <v>3.28552125848864E-06</v>
+        <v>3.452903464816065E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02478833333333333</v>
+        <v>1.441932666666667</v>
       </c>
       <c r="H16">
-        <v>0.074365</v>
+        <v>4.325798000000001</v>
       </c>
       <c r="I16">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="J16">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4168003333333333</v>
+        <v>0.2177653333333333</v>
       </c>
       <c r="N16">
-        <v>1.250401</v>
+        <v>0.653296</v>
       </c>
       <c r="O16">
-        <v>0.004407137384302118</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="P16">
-        <v>0.004407137384302117</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="Q16">
-        <v>0.01033178559611111</v>
+        <v>0.3140029478008889</v>
       </c>
       <c r="R16">
-        <v>0.09298607036499999</v>
+        <v>2.826026530208</v>
       </c>
       <c r="S16">
-        <v>5.981289908400665E-06</v>
+        <v>3.284246113679907E-05</v>
       </c>
       <c r="T16">
-        <v>5.981289908400663E-06</v>
+        <v>3.284246113679907E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02478833333333333</v>
+        <v>1.441932666666667</v>
       </c>
       <c r="H17">
-        <v>0.074365</v>
+        <v>4.325798000000001</v>
       </c>
       <c r="I17">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="J17">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.629965</v>
+        <v>0.177457</v>
       </c>
       <c r="N17">
-        <v>1.889895</v>
+        <v>0.5323709999999999</v>
       </c>
       <c r="O17">
-        <v>0.00666108464956894</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="P17">
-        <v>0.006661084649568939</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="Q17">
-        <v>0.01561578240833333</v>
+        <v>0.2558810452286667</v>
       </c>
       <c r="R17">
-        <v>0.140542041675</v>
+        <v>2.302929407058</v>
       </c>
       <c r="S17">
-        <v>9.040307782412903E-06</v>
+        <v>2.676332608474391E-05</v>
       </c>
       <c r="T17">
-        <v>9.040307782412898E-06</v>
+        <v>2.676332608474391E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02478833333333333</v>
+        <v>1.441932666666667</v>
       </c>
       <c r="H18">
-        <v>0.074365</v>
+        <v>4.325798000000001</v>
       </c>
       <c r="I18">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="J18">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1945133333333334</v>
+        <v>0.3310313333333333</v>
       </c>
       <c r="N18">
-        <v>0.5835400000000002</v>
+        <v>0.9930939999999999</v>
       </c>
       <c r="O18">
-        <v>0.002056732959455134</v>
+        <v>0.003803956160525069</v>
       </c>
       <c r="P18">
-        <v>0.002056732959455133</v>
+        <v>0.00380395616052507</v>
       </c>
       <c r="Q18">
-        <v>0.004821661344444446</v>
+        <v>0.4773248932235556</v>
       </c>
       <c r="R18">
-        <v>0.04339495210000002</v>
+        <v>4.295924039012</v>
       </c>
       <c r="S18">
-        <v>2.791362061569149E-06</v>
+        <v>4.992476779314175E-05</v>
       </c>
       <c r="T18">
-        <v>2.791362061569147E-06</v>
+        <v>4.992476779314176E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,55 +1588,55 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02478833333333333</v>
+        <v>1.441932666666667</v>
       </c>
       <c r="H19">
-        <v>0.074365</v>
+        <v>4.325798000000001</v>
       </c>
       <c r="I19">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="J19">
-        <v>0.001357182539783206</v>
+        <v>0.01312443300772702</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.280680666666667</v>
+        <v>0.123532</v>
       </c>
       <c r="N19">
-        <v>3.842042</v>
+        <v>0.370596</v>
       </c>
       <c r="O19">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="P19">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="Q19">
-        <v>0.03174593925888888</v>
+        <v>0.1781248261786667</v>
       </c>
       <c r="R19">
-        <v>0.28571345333</v>
+        <v>1.603123435608</v>
       </c>
       <c r="S19">
-        <v>1.837839784377293E-05</v>
+        <v>1.863058204466763E-05</v>
       </c>
       <c r="T19">
-        <v>1.837839784377292E-05</v>
+        <v>1.863058204466764E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.6788756666666668</v>
+        <v>0.1701343333333334</v>
       </c>
       <c r="H20">
-        <v>2.036627</v>
+        <v>0.5104030000000001</v>
       </c>
       <c r="I20">
-        <v>0.03716902581121566</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="J20">
-        <v>0.03716902581121564</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>91.82302933333334</v>
+        <v>85.94417566666668</v>
       </c>
       <c r="N20">
-        <v>275.469088</v>
+        <v>257.832527</v>
       </c>
       <c r="O20">
-        <v>0.9709126239857535</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="P20">
-        <v>0.9709126239857532</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="Q20">
-        <v>62.33642025401956</v>
+        <v>14.62205503093123</v>
       </c>
       <c r="R20">
-        <v>561.027782286176</v>
+        <v>131.598495278381</v>
       </c>
       <c r="S20">
-        <v>0.03608787638136159</v>
+        <v>0.001529362311585715</v>
       </c>
       <c r="T20">
-        <v>0.03608787638136157</v>
+        <v>0.001529362311585715</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.6788756666666668</v>
+        <v>0.1701343333333334</v>
       </c>
       <c r="H21">
-        <v>2.036627</v>
+        <v>0.5104030000000001</v>
       </c>
       <c r="I21">
-        <v>0.03716902581121566</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="J21">
-        <v>0.03716902581121564</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.686845</v>
       </c>
       <c r="O21">
-        <v>0.002420839616027969</v>
+        <v>0.002630897245452939</v>
       </c>
       <c r="P21">
-        <v>0.002420839616027969</v>
+        <v>0.00263089724545294</v>
       </c>
       <c r="Q21">
-        <v>0.1554274524238889</v>
+        <v>0.03895197205944445</v>
       </c>
       <c r="R21">
-        <v>1.398847071815</v>
+        <v>0.3505677485350001</v>
       </c>
       <c r="S21">
-        <v>8.998025017295699E-05</v>
+        <v>4.074097512534136E-06</v>
       </c>
       <c r="T21">
-        <v>8.998025017295694E-05</v>
+        <v>4.074097512534136E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.6788756666666668</v>
+        <v>0.1701343333333334</v>
       </c>
       <c r="H22">
-        <v>2.036627</v>
+        <v>0.5104030000000001</v>
       </c>
       <c r="I22">
-        <v>0.03716902581121566</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="J22">
-        <v>0.03716902581121564</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4168003333333333</v>
+        <v>0.2177653333333333</v>
       </c>
       <c r="N22">
-        <v>1.250401</v>
+        <v>0.653296</v>
       </c>
       <c r="O22">
-        <v>0.004407137384302118</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="P22">
-        <v>0.004407137384302117</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="Q22">
-        <v>0.2829556041585555</v>
+        <v>0.03704935980977778</v>
       </c>
       <c r="R22">
-        <v>2.546600437427</v>
+        <v>0.333444238288</v>
       </c>
       <c r="S22">
-        <v>0.0001638090031906989</v>
+        <v>3.875097887512467E-06</v>
       </c>
       <c r="T22">
-        <v>0.0001638090031906988</v>
+        <v>3.875097887512467E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.6788756666666668</v>
+        <v>0.1701343333333334</v>
       </c>
       <c r="H23">
-        <v>2.036627</v>
+        <v>0.5104030000000001</v>
       </c>
       <c r="I23">
-        <v>0.03716902581121566</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="J23">
-        <v>0.03716902581121564</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.629965</v>
+        <v>0.177457</v>
       </c>
       <c r="N23">
-        <v>1.889895</v>
+        <v>0.5323709999999999</v>
       </c>
       <c r="O23">
-        <v>0.00666108464956894</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="P23">
-        <v>0.006661084649568939</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="Q23">
-        <v>0.4276679093516667</v>
+        <v>0.03019152839033333</v>
       </c>
       <c r="R23">
-        <v>3.849011184165001</v>
+        <v>0.271723755513</v>
       </c>
       <c r="S23">
-        <v>0.0002475860272705203</v>
+        <v>3.157817800006275E-06</v>
       </c>
       <c r="T23">
-        <v>0.0002475860272705202</v>
+        <v>3.157817800006275E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.6788756666666668</v>
+        <v>0.1701343333333334</v>
       </c>
       <c r="H24">
-        <v>2.036627</v>
+        <v>0.5104030000000001</v>
       </c>
       <c r="I24">
-        <v>0.03716902581121566</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="J24">
-        <v>0.03716902581121564</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1945133333333334</v>
+        <v>0.3310313333333333</v>
       </c>
       <c r="N24">
-        <v>0.5835400000000002</v>
+        <v>0.9930939999999999</v>
       </c>
       <c r="O24">
-        <v>0.002056732959455134</v>
+        <v>0.003803956160525069</v>
       </c>
       <c r="P24">
-        <v>0.002056732959455133</v>
+        <v>0.00380395616052507</v>
       </c>
       <c r="Q24">
-        <v>0.1320503688422223</v>
+        <v>0.05631979520911111</v>
       </c>
       <c r="R24">
-        <v>1.18845331958</v>
+        <v>0.506878156882</v>
       </c>
       <c r="S24">
-        <v>7.644676045676586E-05</v>
+        <v>5.890647518890834E-06</v>
       </c>
       <c r="T24">
-        <v>7.644676045676579E-05</v>
+        <v>5.890647518890834E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,55 +1960,55 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.6788756666666668</v>
+        <v>0.1701343333333334</v>
       </c>
       <c r="H25">
-        <v>2.036627</v>
+        <v>0.5104030000000001</v>
       </c>
       <c r="I25">
-        <v>0.03716902581121566</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="J25">
-        <v>0.03716902581121564</v>
+        <v>0.001548558203698576</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>1.280680666666667</v>
+        <v>0.123532</v>
       </c>
       <c r="N25">
-        <v>3.842042</v>
+        <v>0.370596</v>
       </c>
       <c r="O25">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="P25">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="Q25">
-        <v>0.8694229413704445</v>
+        <v>0.02101703446533333</v>
       </c>
       <c r="R25">
-        <v>7.824806472334</v>
+        <v>0.189153310188</v>
       </c>
       <c r="S25">
-        <v>0.0005033273887631242</v>
+        <v>2.19823139391726E-06</v>
       </c>
       <c r="T25">
-        <v>0.0005033273887631238</v>
+        <v>2.19823139391726E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.2967319999999999</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H26">
-        <v>0.8901959999999999</v>
+        <v>0.194875</v>
       </c>
       <c r="I26">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208901</v>
       </c>
       <c r="J26">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208902</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>91.82302933333334</v>
+        <v>85.94417566666668</v>
       </c>
       <c r="N26">
-        <v>275.469088</v>
+        <v>257.832527</v>
       </c>
       <c r="O26">
-        <v>0.9709126239857535</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="P26">
-        <v>0.9709126239857532</v>
+        <v>0.9876040228471791</v>
       </c>
       <c r="Q26">
-        <v>27.24683114013866</v>
+        <v>5.582790411013889</v>
       </c>
       <c r="R26">
-        <v>245.221480261248</v>
+        <v>50.24511369912501</v>
       </c>
       <c r="S26">
-        <v>0.01577376868871058</v>
+        <v>0.0005839199230221337</v>
       </c>
       <c r="T26">
-        <v>0.01577376868871057</v>
+        <v>0.0005839199230221338</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.2967319999999999</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H27">
-        <v>0.8901959999999999</v>
+        <v>0.194875</v>
       </c>
       <c r="I27">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208901</v>
       </c>
       <c r="J27">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208902</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.686845</v>
       </c>
       <c r="O27">
-        <v>0.002420839616027969</v>
+        <v>0.002630897245452939</v>
       </c>
       <c r="P27">
-        <v>0.002420839616027969</v>
+        <v>0.00263089724545294</v>
       </c>
       <c r="Q27">
-        <v>0.06793629684666666</v>
+        <v>0.01487210215277778</v>
       </c>
       <c r="R27">
-        <v>0.61142667162</v>
+        <v>0.133848919375</v>
       </c>
       <c r="S27">
-        <v>3.932976376281253E-05</v>
+        <v>1.555515451035925E-06</v>
       </c>
       <c r="T27">
-        <v>3.932976376281252E-05</v>
+        <v>1.555515451035926E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.2967319999999999</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H28">
-        <v>0.8901959999999999</v>
+        <v>0.194875</v>
       </c>
       <c r="I28">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208901</v>
       </c>
       <c r="J28">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208902</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4168003333333333</v>
+        <v>0.2177653333333333</v>
       </c>
       <c r="N28">
-        <v>1.250401</v>
+        <v>0.653296</v>
       </c>
       <c r="O28">
-        <v>0.004407137384302118</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="P28">
-        <v>0.004407137384302117</v>
+        <v>0.002502390855091649</v>
       </c>
       <c r="Q28">
-        <v>0.1236779965106666</v>
+        <v>0.01414567311111111</v>
       </c>
       <c r="R28">
-        <v>1.113101968596</v>
+        <v>0.127311058</v>
       </c>
       <c r="S28">
-        <v>7.159981646337171E-05</v>
+        <v>1.47953617206206E-06</v>
       </c>
       <c r="T28">
-        <v>7.159981646337169E-05</v>
+        <v>1.479536172062061E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.2967319999999999</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H29">
-        <v>0.8901959999999999</v>
+        <v>0.194875</v>
       </c>
       <c r="I29">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208901</v>
       </c>
       <c r="J29">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208902</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.629965</v>
+        <v>0.177457</v>
       </c>
       <c r="N29">
-        <v>1.889895</v>
+        <v>0.5323709999999999</v>
       </c>
       <c r="O29">
-        <v>0.00666108464956894</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="P29">
-        <v>0.006661084649568939</v>
+        <v>0.002039198651018828</v>
       </c>
       <c r="Q29">
-        <v>0.18693077438</v>
+        <v>0.01152731095833333</v>
       </c>
       <c r="R29">
-        <v>1.68237696942</v>
+        <v>0.103745798625</v>
       </c>
       <c r="S29">
-        <v>0.0001082181917121339</v>
+        <v>1.205674229532786E-06</v>
       </c>
       <c r="T29">
-        <v>0.0001082181917121338</v>
+        <v>1.205674229532786E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.2967319999999999</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H30">
-        <v>0.8901959999999999</v>
+        <v>0.194875</v>
       </c>
       <c r="I30">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208901</v>
       </c>
       <c r="J30">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208902</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1945133333333334</v>
+        <v>0.3310313333333333</v>
       </c>
       <c r="N30">
-        <v>0.5835400000000002</v>
+        <v>0.9930939999999999</v>
       </c>
       <c r="O30">
-        <v>0.002056732959455134</v>
+        <v>0.003803956160525069</v>
       </c>
       <c r="P30">
-        <v>0.002056732959455133</v>
+        <v>0.00380395616052507</v>
       </c>
       <c r="Q30">
-        <v>0.05771833042666667</v>
+        <v>0.02150324369444444</v>
       </c>
       <c r="R30">
-        <v>0.5194649738400001</v>
+        <v>0.19352919325</v>
       </c>
       <c r="S30">
-        <v>3.341436619055483E-05</v>
+        <v>2.249085399662327E-06</v>
       </c>
       <c r="T30">
-        <v>3.341436619055481E-05</v>
+        <v>2.249085399662328E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,46 +2341,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.2967319999999999</v>
+        <v>0.06495833333333333</v>
       </c>
       <c r="H31">
-        <v>0.8901959999999999</v>
+        <v>0.194875</v>
       </c>
       <c r="I31">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208901</v>
       </c>
       <c r="J31">
-        <v>0.01624633185214618</v>
+        <v>0.0005912490325208902</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>1.280680666666667</v>
+        <v>0.123532</v>
       </c>
       <c r="N31">
-        <v>3.842042</v>
+        <v>0.370596</v>
       </c>
       <c r="O31">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="P31">
-        <v>0.01354158140489241</v>
+        <v>0.001419534240732447</v>
       </c>
       <c r="Q31">
-        <v>0.3800189355813332</v>
+        <v>0.008024432833333331</v>
       </c>
       <c r="R31">
-        <v>3.420170420231999</v>
+        <v>0.07221989549999999</v>
       </c>
       <c r="S31">
-        <v>0.0002200010253067341</v>
+        <v>8.392982464633355E-07</v>
       </c>
       <c r="T31">
-        <v>0.000220001025306734</v>
+        <v>8.392982464633358E-07</v>
       </c>
     </row>
   </sheetData>
